--- a/CentralBankRF/Отчёт.xlsx
+++ b/CentralBankRF/Отчёт.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB20C53-1490-4AAA-B683-767DCEDBD813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CE6274-FE77-4214-8549-50FE7F2F276C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>14.01.2021</t>
-  </si>
-  <si>
-    <t>15.01.2021</t>
-  </si>
-  <si>
-    <t>16.01.2021</t>
-  </si>
-  <si>
-    <t>19.01.2021</t>
-  </si>
-  <si>
-    <t>20.01.2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>10.01.2020</t>
+  </si>
+  <si>
+    <t>11.01.2020</t>
+  </si>
+  <si>
+    <t>14.01.2020</t>
+  </si>
+  <si>
+    <t>15.01.2020</t>
+  </si>
+  <si>
+    <t>16.01.2020</t>
+  </si>
+  <si>
+    <t>17.01.2020</t>
+  </si>
+  <si>
+    <t>18.01.2020</t>
+  </si>
+  <si>
+    <t>21.01.2020</t>
+  </si>
+  <si>
+    <t>22.01.2020</t>
+  </si>
+  <si>
+    <t>23.01.2020</t>
+  </si>
+  <si>
+    <t>24.01.2020</t>
+  </si>
+  <si>
+    <t>25.01.2020</t>
+  </si>
+  <si>
+    <t>28.01.2020</t>
+  </si>
+  <si>
+    <t>29.01.2020</t>
+  </si>
+  <si>
+    <t>30.01.2020</t>
+  </si>
+  <si>
+    <t>31.01.2020</t>
+  </si>
+  <si>
+    <t>01.02.2020</t>
+  </si>
+  <si>
+    <t>04.02.2020</t>
+  </si>
+  <si>
+    <t>05.02.2020</t>
+  </si>
+  <si>
+    <t>06.02.2020</t>
+  </si>
+  <si>
+    <t>07.02.2020</t>
+  </si>
+  <si>
+    <t>08.02.2020</t>
   </si>
 </sst>
 </file>
@@ -70,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -104,6 +156,169 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.01.2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.8413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.959299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.9177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.981400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-678A-42F1-AE2D-931625F9DFD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="272025584"/>
+        <c:axId val="272024928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="272025584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="272024928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="272024928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="272025584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -118,47 +333,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$5</c:f>
+              <c:f>Sheet1!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.01.2021</c:v>
+                  <c:v>10.01.2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.01.2021</c:v>
+                  <c:v>11.01.2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.01.2021</c:v>
+                  <c:v>14.01.2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.01.2021</c:v>
+                  <c:v>15.01.2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.01.2021</c:v>
+                  <c:v>16.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.01.2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$5</c:f>
+              <c:f>Sheet1!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>708791</c:v>
+                  <c:v>28.902999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>709339</c:v>
+                  <c:v>28.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>709246</c:v>
+                  <c:v>28.8413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>712860</c:v>
+                  <c:v>28.959299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>708922</c:v>
+                  <c:v>28.9177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.9725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.981400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -166,7 +393,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-303F-474B-8724-DBB3AEF61E86}"/>
+              <c16:uniqueId val="{00000000-C5C2-4CDA-8B16-3E38B8599F9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -179,11 +406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="253838064"/>
-        <c:axId val="253834784"/>
+        <c:axId val="266124336"/>
+        <c:axId val="322787296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253838064"/>
+        <c:axId val="266124336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -193,7 +420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253834784"/>
+        <c:crossAx val="322787296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -201,7 +428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253834784"/>
+        <c:axId val="322787296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -212,7 +439,255 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253838064"/>
+        <c:crossAx val="266124336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.01.2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>01.02.2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>04.02.2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>05.02.2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>06.02.2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>07.02.2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>08.02.2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>28.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.8413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.959299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.9725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.981400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.9876</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>29.186599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>29.226400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>29.320599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>29.258700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>29.422799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>29.500399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>29.3368</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>29.491900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>29.549499999999998</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>29.727900000000002</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>29.555099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>29.334199999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>29.042100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>29.142299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9948-4BFB-BED2-0B4BD166294F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319668288"/>
+        <c:axId val="319668616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="319668288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="319668616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="319668616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="319668288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -240,23 +715,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7ACCCF5-85BC-4F35-BAA9-DDED731F72FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276A2565-E3F8-494B-8B6C-8A59EA462DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -269,6 +744,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF339EBD-6B47-4F8E-A4B9-91C9C58DE203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959A338F-B462-4D80-896F-1F9948D0A888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -540,50 +1087,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>708791</v>
+      <c r="B1" s="2">
+        <v>28.902999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>709339</v>
+      <c r="B2" s="2">
+        <v>28.88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>709246</v>
+      <c r="B3" s="2">
+        <v>28.8413</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>712860</v>
+      <c r="B4" s="2">
+        <v>28.959299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>708922</v>
+      <c r="B5" s="2">
+        <v>28.9177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>28.9725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>28.981400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>28.9876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29.186599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>29.226400000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29.320599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29.258700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>29.422799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29.500399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>29.3368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>29.491900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>29.549499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>29.727900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>29.555099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>29.334199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29.042100000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29.142299999999999</v>
       </c>
     </row>
   </sheetData>
